--- a/results/[15_ambitious_co2_pricing]_#_fix_cost.xlsx
+++ b/results/[15_ambitious_co2_pricing]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>21.75363751992066</v>
+        <v>1037.265132737054</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>55.47403345227241</v>
+        <v>28926.05393052954</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>29.14533256558261</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>124.455910834944</v>
+        <v>16171.06685703679</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>48492.22142001599</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>10595.37713982</v>
       </c>
       <c r="N2" t="n">
-        <v>20.99477730462067</v>
+        <v>7085.795531257033</v>
       </c>
       <c r="O2" t="n">
-        <v>30.05220371324718</v>
+        <v>6997.710127123046</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16.30673521844466</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>58.06505722185842</v>
+        <v>4157.588990853394</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>210.1487638471664</v>
+        <v>45991.90904307188</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>29.14533256558261</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>356.418250515259</v>
+        <v>37079.12819938764</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>17449.04999683176</v>
       </c>
       <c r="N2" t="n">
-        <v>56.23220094618176</v>
+        <v>9043.260164362724</v>
       </c>
       <c r="O2" t="n">
-        <v>60.31134905362744</v>
+        <v>9733.027027076689</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>37.54817127370213</v>
+        <v>2754.31755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>114.2975832114856</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>442.777361909205</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>29.14533256558261</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>700.4083236719096</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>126.2954057241229</v>
+        <v>13060.5833893223</v>
       </c>
       <c r="O2" t="n">
-        <v>112.4842618089496</v>
+        <v>12869.82982044365</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>37.54817127370213</v>
+        <v>2754.31755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>114.2975832114856</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>442.777361909205</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>29.14533256558261</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>700.4083236719096</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>126.2954057241229</v>
+        <v>13178.75918555561</v>
       </c>
       <c r="O2" t="n">
-        <v>116.2966197263281</v>
+        <v>12869.82982044365</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>46.85990903090398</v>
+        <v>5713.151062849596</v>
       </c>
       <c r="B2" t="n">
-        <v>114.2975832114856</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>442.777361909205</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>29.14533256558261</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>700.4083236719096</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>126.2954057241229</v>
+        <v>13630.65979676794</v>
       </c>
       <c r="O2" t="n">
-        <v>119.5499296770271</v>
+        <v>14953.0932418782</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>46.85990903090398</v>
+        <v>5713.151062849596</v>
       </c>
       <c r="B2" t="n">
-        <v>114.2975832114856</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>442.777361909205</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>29.14533256558261</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>700.4083236719096</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>126.2954057241229</v>
+        <v>13630.65979676794</v>
       </c>
       <c r="O2" t="n">
-        <v>119.5499296770271</v>
+        <v>14953.0932418782</v>
       </c>
     </row>
   </sheetData>

--- a/results/[15_ambitious_co2_pricing]_#_fix_cost.xlsx
+++ b/results/[15_ambitious_co2_pricing]_#_fix_cost.xlsx
@@ -517,7 +517,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>745.9284356187092</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>14165.88783675739</v>
+        <v>29970.44631501978</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661783</v>
+        <v>8095.925712661508</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18569.88309555444</v>
+        <v>13738.00533864</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>22233.922616268</v>
+        <v>54416.76749186649</v>
       </c>
       <c r="M2" t="n">
-        <v>5934.147448069555</v>
+        <v>10518.579755365</v>
       </c>
       <c r="N2" t="n">
-        <v>6153.949918901008</v>
+        <v>7532.916175655135</v>
       </c>
       <c r="O2" t="n">
-        <v>3607.941344031343</v>
+        <v>6996.064443878286</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4942.845247385885</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3098.910837094656</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>44571.36168352125</v>
+        <v>47468.9700841482</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661783</v>
+        <v>8095.925712661508</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>29366.83473607214</v>
+        <v>22151.04139999618</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>106759.8571246636</v>
+        <v>79845.75677560513</v>
       </c>
       <c r="M2" t="n">
-        <v>24227.68851826778</v>
+        <v>16283.86611051475</v>
       </c>
       <c r="N2" t="n">
-        <v>18769.55462429636</v>
+        <v>9392.991424751412</v>
       </c>
       <c r="O2" t="n">
-        <v>9051.933211935182</v>
+        <v>8237.889785501595</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8637.092968130197</v>
+        <v>1495.31406888776</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5882.712195850656</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102911.5005596259</v>
+        <v>60951.26884845589</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661783</v>
+        <v>8095.925712661508</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>78244.05767628433</v>
+        <v>39923.28950426233</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>187449.28639421</v>
+        <v>79845.75677560513</v>
       </c>
       <c r="M2" t="n">
-        <v>68475.73765743445</v>
+        <v>20960.87118907375</v>
       </c>
       <c r="N2" t="n">
-        <v>30561.78171875115</v>
+        <v>13774.23956835204</v>
       </c>
       <c r="O2" t="n">
-        <v>26073.35218191739</v>
+        <v>12885.20435109773</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8637.092968130197</v>
+        <v>1495.31406888776</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5882.712195850656</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102911.5005596259</v>
+        <v>60951.26884845589</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661783</v>
+        <v>8095.925712661508</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>78244.05767628433</v>
+        <v>39923.28950426233</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>187449.28639421</v>
+        <v>79845.75677560513</v>
       </c>
       <c r="M2" t="n">
-        <v>68475.73765743445</v>
+        <v>20960.87118907375</v>
       </c>
       <c r="N2" t="n">
-        <v>30561.78171875115</v>
+        <v>13774.23956835204</v>
       </c>
       <c r="O2" t="n">
-        <v>26073.35218191739</v>
+        <v>12885.20435109773</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8637.092968130197</v>
+        <v>1495.31406888776</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5882.712195850656</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102911.5005596259</v>
+        <v>60951.26884845589</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661783</v>
+        <v>8095.925712661508</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>78244.05767628433</v>
+        <v>39923.28950426233</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>187449.28639421</v>
+        <v>79845.75677560513</v>
       </c>
       <c r="M2" t="n">
-        <v>68475.73765743445</v>
+        <v>20960.87118907375</v>
       </c>
       <c r="N2" t="n">
-        <v>30561.78171875115</v>
+        <v>13774.23956835204</v>
       </c>
       <c r="O2" t="n">
-        <v>26073.35218191739</v>
+        <v>12885.20435109773</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8637.092968130197</v>
+        <v>1495.31406888776</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5882.712195850656</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102911.5005596259</v>
+        <v>60951.26884845589</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661783</v>
+        <v>8095.925712661508</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>78244.05767628433</v>
+        <v>39923.28950426233</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>187449.28639421</v>
+        <v>79845.75677560513</v>
       </c>
       <c r="M2" t="n">
-        <v>68475.73765743445</v>
+        <v>20960.87118907375</v>
       </c>
       <c r="N2" t="n">
-        <v>30561.78171875115</v>
+        <v>13774.23956835204</v>
       </c>
       <c r="O2" t="n">
-        <v>26073.35218191739</v>
+        <v>12885.20435109773</v>
       </c>
     </row>
   </sheetData>

--- a/results/[15_ambitious_co2_pricing]_#_fix_cost.xlsx
+++ b/results/[15_ambitious_co2_pricing]_#_fix_cost.xlsx
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29970.44631501978</v>
+        <v>29945.71989099024</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661508</v>
+        <v>8095.925712661654</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>13738.00533864</v>
+        <v>13698.12725754988</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54416.76749186649</v>
+        <v>54033.78794259601</v>
       </c>
       <c r="M2" t="n">
-        <v>10518.579755365</v>
+        <v>10556.13095757</v>
       </c>
       <c r="N2" t="n">
-        <v>7532.916175655135</v>
+        <v>7648.163036096154</v>
       </c>
       <c r="O2" t="n">
-        <v>6996.064443878286</v>
+        <v>7602.027316031194</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3098.910837094656</v>
+        <v>4291.832072666659</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>47468.9700841482</v>
+        <v>58123.2420465009</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661508</v>
+        <v>8095.925712661654</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>22151.04139999618</v>
+        <v>27170.44055490107</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79845.75677560513</v>
+        <v>95093.05349626098</v>
       </c>
       <c r="M2" t="n">
-        <v>16283.86611051475</v>
+        <v>20633.48636216725</v>
       </c>
       <c r="N2" t="n">
-        <v>9392.991424751412</v>
+        <v>10954.02563372962</v>
       </c>
       <c r="O2" t="n">
-        <v>8237.889785501595</v>
+        <v>9635.999202966375</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1495.31406888776</v>
+        <v>1524.327458338266</v>
       </c>
       <c r="B2" t="n">
-        <v>5882.712195850656</v>
+        <v>7110.124845112752</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>60951.26884845589</v>
+        <v>71988.56920036966</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661508</v>
+        <v>8095.925712661654</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>39923.28950426233</v>
+        <v>44419.89816206333</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79845.75677560513</v>
+        <v>95093.05349626098</v>
       </c>
       <c r="M2" t="n">
-        <v>20960.87118907375</v>
+        <v>23672.65274446728</v>
       </c>
       <c r="N2" t="n">
-        <v>13774.23956835204</v>
+        <v>15993.02254519105</v>
       </c>
       <c r="O2" t="n">
-        <v>12885.20435109773</v>
+        <v>15252.03544981399</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1495.31406888776</v>
+        <v>1524.327458338266</v>
       </c>
       <c r="B2" t="n">
-        <v>5882.712195850656</v>
+        <v>7110.124845112752</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>60951.26884845589</v>
+        <v>71988.56920036966</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661508</v>
+        <v>8095.925712661654</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>39923.28950426233</v>
+        <v>44419.89816206333</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79845.75677560513</v>
+        <v>95093.05349626098</v>
       </c>
       <c r="M2" t="n">
-        <v>20960.87118907375</v>
+        <v>23672.65274446728</v>
       </c>
       <c r="N2" t="n">
-        <v>13774.23956835204</v>
+        <v>15993.02254519105</v>
       </c>
       <c r="O2" t="n">
-        <v>12885.20435109773</v>
+        <v>15252.03544981399</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1495.31406888776</v>
+        <v>1524.327458338266</v>
       </c>
       <c r="B2" t="n">
-        <v>5882.712195850656</v>
+        <v>7110.124845112752</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>60951.26884845589</v>
+        <v>71988.56920036966</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661508</v>
+        <v>8095.925712661654</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>39923.28950426233</v>
+        <v>44419.89816206333</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79845.75677560513</v>
+        <v>95093.05349626098</v>
       </c>
       <c r="M2" t="n">
-        <v>20960.87118907375</v>
+        <v>23672.65274446728</v>
       </c>
       <c r="N2" t="n">
-        <v>13774.23956835204</v>
+        <v>15993.02254519105</v>
       </c>
       <c r="O2" t="n">
-        <v>12885.20435109773</v>
+        <v>15252.03544981399</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1495.31406888776</v>
+        <v>1524.327458338266</v>
       </c>
       <c r="B2" t="n">
-        <v>5882.712195850656</v>
+        <v>7110.124845112752</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>60951.26884845589</v>
+        <v>71988.56920036966</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661508</v>
+        <v>8095.925712661654</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>39923.28950426233</v>
+        <v>44419.89816206333</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79845.75677560513</v>
+        <v>95093.05349626098</v>
       </c>
       <c r="M2" t="n">
-        <v>20960.87118907375</v>
+        <v>23672.65274446728</v>
       </c>
       <c r="N2" t="n">
-        <v>13774.23956835204</v>
+        <v>15993.02254519105</v>
       </c>
       <c r="O2" t="n">
-        <v>12885.20435109773</v>
+        <v>15252.03544981399</v>
       </c>
     </row>
   </sheetData>

--- a/results/[15_ambitious_co2_pricing]_#_fix_cost.xlsx
+++ b/results/[15_ambitious_co2_pricing]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1037.265132737054</v>
+        <v>973.9537847600009</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>28926.05393052954</v>
+        <v>28982.37596598056</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>16171.06685703679</v>
+        <v>16175.28135478</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48492.22142001599</v>
+        <v>48524.529503538</v>
       </c>
       <c r="M2" t="n">
-        <v>10595.37713982</v>
+        <v>10590.587968015</v>
       </c>
       <c r="N2" t="n">
-        <v>7085.795531257033</v>
+        <v>7169.226093134131</v>
       </c>
       <c r="O2" t="n">
-        <v>6997.710127123046</v>
+        <v>6984.121280850347</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4157.588990853394</v>
+        <v>5712.560177842886</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45991.90904307188</v>
+        <v>56106.05588781912</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>37079.12819938764</v>
+        <v>44217.8984721661</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>17449.04999683176</v>
+        <v>21984.28023276101</v>
       </c>
       <c r="N2" t="n">
-        <v>9043.260164362724</v>
+        <v>10615.03632605705</v>
       </c>
       <c r="O2" t="n">
-        <v>9733.027027076689</v>
+        <v>12072.05326959172</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2754.31755456332</v>
+        <v>2861.961401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13060.5833893223</v>
+        <v>15161.1375241418</v>
       </c>
       <c r="O2" t="n">
-        <v>12869.82982044365</v>
+        <v>14770.81484578486</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2754.31755456332</v>
+        <v>2861.961401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13178.75918555561</v>
+        <v>15266.09369184379</v>
       </c>
       <c r="O2" t="n">
-        <v>12869.82982044365</v>
+        <v>14770.81484578486</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5713.151062849596</v>
+        <v>6302.873118834019</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13630.65979676794</v>
+        <v>15804.8035822404</v>
       </c>
       <c r="O2" t="n">
-        <v>14953.0932418782</v>
+        <v>17113.37003595566</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5713.151062849596</v>
+        <v>6302.873118834019</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13630.65979676794</v>
+        <v>15804.8035822404</v>
       </c>
       <c r="O2" t="n">
-        <v>14953.0932418782</v>
+        <v>17113.37003595566</v>
       </c>
     </row>
   </sheetData>

--- a/results/[15_ambitious_co2_pricing]_#_fix_cost.xlsx
+++ b/results/[15_ambitious_co2_pricing]_#_fix_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>745.9284356187092</v>
+        <v>3903.181680257921</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>48024.68820317771</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>14165.88783675739</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9578.721511094</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661783</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2534.277928792126</v>
       </c>
       <c r="I2" t="n">
-        <v>18569.88309555444</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>22233.922616268</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5934.147448069555</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6153.949918901008</v>
+        <v>2483.088451418222</v>
       </c>
       <c r="O2" t="n">
-        <v>3607.941344031343</v>
+        <v>1995.762462679781</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4942.845247385885</v>
+        <v>7750.604434501322</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>192998.6748030985</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>44571.36168352125</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16456.88206482894</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661783</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7410.946080941625</v>
       </c>
       <c r="I2" t="n">
-        <v>29366.83473607214</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>106759.8571246636</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24227.68851826778</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18769.55462429636</v>
+        <v>8657.602454901116</v>
       </c>
       <c r="O2" t="n">
-        <v>9051.933211935182</v>
+        <v>5738.328092052152</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8637.092968130197</v>
+        <v>27024.51331005456</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292299.7571186319</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102911.5005596259</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17293.09788022109</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661783</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11593.76417664685</v>
       </c>
       <c r="I2" t="n">
-        <v>78244.05767628433</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>187449.28639421</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68475.73765743445</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>30561.78171875115</v>
+        <v>13965.19781313028</v>
       </c>
       <c r="O2" t="n">
-        <v>26073.35218191739</v>
+        <v>9655.305390073045</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -946,31 +946,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8637.092968130197</v>
+        <v>27024.51331005456</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292299.7571186319</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102911.5005596259</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17293.09788022109</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661783</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11593.76417664685</v>
       </c>
       <c r="I2" t="n">
-        <v>78244.05767628433</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>187449.28639421</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68475.73765743445</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>30561.78171875115</v>
+        <v>13965.19781313028</v>
       </c>
       <c r="O2" t="n">
-        <v>26073.35218191739</v>
+        <v>9655.305390073045</v>
       </c>
     </row>
   </sheetData>
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1089,31 +1089,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8637.092968130197</v>
+        <v>27024.51331005456</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292299.7571186319</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102911.5005596259</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17293.09788022109</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661783</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11593.76417664685</v>
       </c>
       <c r="I2" t="n">
-        <v>78244.05767628433</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>187449.28639421</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68475.73765743445</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>30561.78171875115</v>
+        <v>13965.19781313028</v>
       </c>
       <c r="O2" t="n">
-        <v>26073.35218191739</v>
+        <v>9655.305390073045</v>
       </c>
     </row>
   </sheetData>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1232,31 +1232,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8637.092968130197</v>
+        <v>27024.51331005456</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292299.7571186319</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102911.5005596259</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17293.09788022109</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661783</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11593.76417664685</v>
       </c>
       <c r="I2" t="n">
-        <v>78244.05767628433</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>187449.28639421</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68475.73765743445</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>30561.78171875115</v>
+        <v>13965.19781313028</v>
       </c>
       <c r="O2" t="n">
-        <v>26073.35218191739</v>
+        <v>9655.305390073045</v>
       </c>
     </row>
   </sheetData>

--- a/results/[15_ambitious_co2_pricing]_#_fix_cost.xlsx
+++ b/results/[15_ambitious_co2_pricing]_#_fix_cost.xlsx
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29945.71989099024</v>
+        <v>29945.71989099013</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661654</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>13698.12725754988</v>
+        <v>13698.12725754989</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>10556.13095757</v>
       </c>
       <c r="N2" t="n">
-        <v>7648.163036096154</v>
+        <v>7648.163036096192</v>
       </c>
       <c r="O2" t="n">
         <v>7602.027316031194</v>
@@ -672,13 +672,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>58123.2420465009</v>
+        <v>58123.24204650086</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661654</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95093.05349626098</v>
+        <v>95093.053496261</v>
       </c>
       <c r="M2" t="n">
         <v>20633.48636216725</v>
       </c>
       <c r="N2" t="n">
-        <v>10954.02563372962</v>
+        <v>10954.02563372958</v>
       </c>
       <c r="O2" t="n">
-        <v>9635.999202966375</v>
+        <v>9635.999202966374</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1524.327458338266</v>
+        <v>1524.327458338254</v>
       </c>
       <c r="B2" t="n">
         <v>7110.124845112752</v>
@@ -815,13 +815,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71988.56920036966</v>
+        <v>71988.56920036965</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661654</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95093.05349626098</v>
+        <v>95093.053496261</v>
       </c>
       <c r="M2" t="n">
-        <v>23672.65274446728</v>
+        <v>23672.65274446729</v>
       </c>
       <c r="N2" t="n">
-        <v>15993.02254519105</v>
+        <v>15993.02254519102</v>
       </c>
       <c r="O2" t="n">
-        <v>15252.03544981399</v>
+        <v>15252.03544981402</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +946,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1524.327458338266</v>
+        <v>1524.327458338254</v>
       </c>
       <c r="B2" t="n">
         <v>7110.124845112752</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71988.56920036966</v>
+        <v>71988.56920036965</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661654</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95093.05349626098</v>
+        <v>95093.053496261</v>
       </c>
       <c r="M2" t="n">
-        <v>23672.65274446728</v>
+        <v>23672.65274446729</v>
       </c>
       <c r="N2" t="n">
-        <v>15993.02254519105</v>
+        <v>15993.02254519102</v>
       </c>
       <c r="O2" t="n">
-        <v>15252.03544981399</v>
+        <v>15252.03544981402</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1524.327458338266</v>
+        <v>1524.327458338254</v>
       </c>
       <c r="B2" t="n">
         <v>7110.124845112752</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71988.56920036966</v>
+        <v>71988.56920036965</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661654</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95093.05349626098</v>
+        <v>95093.053496261</v>
       </c>
       <c r="M2" t="n">
-        <v>23672.65274446728</v>
+        <v>23672.65274446729</v>
       </c>
       <c r="N2" t="n">
-        <v>15993.02254519105</v>
+        <v>15993.02254519102</v>
       </c>
       <c r="O2" t="n">
-        <v>15252.03544981399</v>
+        <v>15252.03544981402</v>
       </c>
     </row>
   </sheetData>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1524.327458338266</v>
+        <v>1524.327458338254</v>
       </c>
       <c r="B2" t="n">
         <v>7110.124845112752</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71988.56920036966</v>
+        <v>71988.56920036965</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661654</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95093.05349626098</v>
+        <v>95093.053496261</v>
       </c>
       <c r="M2" t="n">
-        <v>23672.65274446728</v>
+        <v>23672.65274446729</v>
       </c>
       <c r="N2" t="n">
-        <v>15993.02254519105</v>
+        <v>15993.02254519102</v>
       </c>
       <c r="O2" t="n">
-        <v>15252.03544981399</v>
+        <v>15252.03544981402</v>
       </c>
     </row>
   </sheetData>

--- a/results/[15_ambitious_co2_pricing]_#_fix_cost.xlsx
+++ b/results/[15_ambitious_co2_pricing]_#_fix_cost.xlsx
@@ -556,10 +556,10 @@
         <v>10590.587968015</v>
       </c>
       <c r="N2" t="n">
-        <v>7169.226093134131</v>
+        <v>7169.226093134127</v>
       </c>
       <c r="O2" t="n">
-        <v>6984.121280850347</v>
+        <v>6984.121280850342</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5712.560177842886</v>
+        <v>5707.815717280662</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44217.8984721661</v>
+        <v>44492.05901988943</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>21984.28023276101</v>
+        <v>21991.42050229464</v>
       </c>
       <c r="N2" t="n">
         <v>10615.03632605705</v>
       </c>
       <c r="O2" t="n">
-        <v>12072.05326959172</v>
+        <v>12089.30731174489</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2861.961401238371</v>
+        <v>2927.360317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15161.1375241418</v>
+        <v>15148.30423606118</v>
       </c>
       <c r="O2" t="n">
-        <v>14770.81484578486</v>
+        <v>14771.7086506748</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2861.961401238371</v>
+        <v>2927.360317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15266.09369184379</v>
+        <v>15255.98985290295</v>
       </c>
       <c r="O2" t="n">
-        <v>14770.81484578486</v>
+        <v>14771.7086506748</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6302.873118834019</v>
+        <v>6352.985609279765</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15804.8035822404</v>
+        <v>15803.97116121355</v>
       </c>
       <c r="O2" t="n">
-        <v>17113.37003595566</v>
+        <v>17114.26384084568</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6302.873118834019</v>
+        <v>6352.985609279765</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15804.8035822404</v>
+        <v>15803.97116121355</v>
       </c>
       <c r="O2" t="n">
-        <v>17113.37003595566</v>
+        <v>17114.26384084568</v>
       </c>
     </row>
   </sheetData>
